--- a/modelos/OBAPPA4451054/OBAPPA4451054_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451054/OBAPPA4451054_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,681 +473,641 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>88.28050803370067</v>
+        <v>9.851602208951302</v>
       </c>
       <c r="C2" t="n">
-        <v>46.57597520432591</v>
+        <v>-30.56132651644539</v>
       </c>
       <c r="D2" t="n">
-        <v>130.2048601620392</v>
+        <v>50.86401937633993</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>50.26228984100561</v>
+        <v>-44.32904243341898</v>
       </c>
       <c r="C3" t="n">
-        <v>8.159897280569282</v>
+        <v>-87.24517743913766</v>
       </c>
       <c r="D3" t="n">
-        <v>92.79732575989981</v>
+        <v>-2.70332994838231</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>10.78689640598923</v>
+        <v>-18.60323122082178</v>
       </c>
       <c r="C4" t="n">
-        <v>-29.37853386411236</v>
+        <v>-60.64077054143041</v>
       </c>
       <c r="D4" t="n">
-        <v>50.18175416798569</v>
+        <v>23.86866360918486</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="B5" t="n">
-        <v>-41.07023823751646</v>
+        <v>14.71183428451205</v>
       </c>
       <c r="C5" t="n">
-        <v>-82.4721817590155</v>
+        <v>-26.50787734595281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6293112456769643</v>
+        <v>57.84485171503798</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B6" t="n">
-        <v>-17.05988604044246</v>
+        <v>27.00164243012569</v>
       </c>
       <c r="C6" t="n">
-        <v>-60.20549222927071</v>
+        <v>-11.77685171410254</v>
       </c>
       <c r="D6" t="n">
-        <v>25.20865917761106</v>
+        <v>70.13597523907201</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
       <c r="B7" t="n">
-        <v>14.87874554461528</v>
+        <v>26.82842254612105</v>
       </c>
       <c r="C7" t="n">
-        <v>-30.95870804115422</v>
+        <v>-15.60527988279266</v>
       </c>
       <c r="D7" t="n">
-        <v>59.05243814852305</v>
+        <v>69.73746279623099</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44866</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B8" t="n">
-        <v>28.25153834982752</v>
+        <v>22.96430175914033</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.81765038301267</v>
+        <v>-20.68111309762941</v>
       </c>
       <c r="D8" t="n">
-        <v>67.79557781045831</v>
+        <v>63.22577934556475</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44887</v>
+        <v>44901</v>
       </c>
       <c r="B9" t="n">
-        <v>27.92206208963963</v>
+        <v>20.15599002672607</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.02448856186752</v>
+        <v>-20.24655133084188</v>
       </c>
       <c r="D9" t="n">
-        <v>68.48255770897633</v>
+        <v>56.27302006759999</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="B10" t="n">
-        <v>24.75471831942347</v>
+        <v>29.26712907505482</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.81943478651027</v>
+        <v>-15.87617972264429</v>
       </c>
       <c r="D10" t="n">
-        <v>68.78569485136735</v>
+        <v>69.77920191635546</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44887</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="B11" t="n">
-        <v>21.35916108943763</v>
+        <v>40.23694347852569</v>
       </c>
       <c r="C11" t="n">
-        <v>-20.30235779614009</v>
+        <v>1.453028807242948</v>
       </c>
       <c r="D11" t="n">
-        <v>64.65006309666741</v>
+        <v>83.47690197237735</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44908</v>
+        <v>44925</v>
       </c>
       <c r="B12" t="n">
-        <v>29.94214994067986</v>
+        <v>4.75602852943789</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.865875358855723</v>
+        <v>-34.05637635849571</v>
       </c>
       <c r="D12" t="n">
-        <v>68.29577444782777</v>
+        <v>45.6408993574212</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44901</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B13" t="n">
-        <v>40.26401217384146</v>
+        <v>25.86288347946589</v>
       </c>
       <c r="C13" t="n">
-        <v>2.080033810680399</v>
+        <v>-16.89948277127286</v>
       </c>
       <c r="D13" t="n">
-        <v>84.72985581840935</v>
+        <v>68.50920324448794</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="B14" t="n">
-        <v>7.735706896744356</v>
+        <v>27.6085430411528</v>
       </c>
       <c r="C14" t="n">
-        <v>-31.17608170529319</v>
+        <v>-12.5311701938074</v>
       </c>
       <c r="D14" t="n">
-        <v>49.97439873921071</v>
+        <v>67.85924767892428</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44922</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B15" t="n">
-        <v>27.68040610086416</v>
+        <v>36.46648285893093</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.69203525223642</v>
+        <v>-4.239901703015104</v>
       </c>
       <c r="D15" t="n">
-        <v>65.40299365363208</v>
+        <v>77.51617331901326</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>29.36003913109268</v>
+        <v>39.51606945878495</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.13451316790816</v>
+        <v>-2.788135304061352</v>
       </c>
       <c r="D16" t="n">
-        <v>70.80024171711595</v>
+        <v>80.60286690504155</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44943</v>
+        <v>44960</v>
       </c>
       <c r="B17" t="n">
-        <v>38.05381189786142</v>
+        <v>-0.2405599045057691</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.554469525919781</v>
+        <v>-41.88423936979088</v>
       </c>
       <c r="D17" t="n">
-        <v>78.88743395598298</v>
+        <v>38.80146068166281</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44936</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="B18" t="n">
-        <v>39.48183007715742</v>
+        <v>17.36141690592753</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6672771641561553</v>
+        <v>-22.93039441791984</v>
       </c>
       <c r="D18" t="n">
-        <v>82.70406768196992</v>
+        <v>59.4622388097519</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>1.430578891863924</v>
+        <v>21.95629761679113</v>
       </c>
       <c r="C19" t="n">
-        <v>-40.9888754649777</v>
+        <v>-20.18018310799156</v>
       </c>
       <c r="D19" t="n">
-        <v>40.0850831918874</v>
+        <v>65.82004571012108</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>18.1453426660279</v>
+        <v>25.58948100187175</v>
       </c>
       <c r="C20" t="n">
-        <v>-21.53304254235344</v>
+        <v>-15.31240469963015</v>
       </c>
       <c r="D20" t="n">
-        <v>56.78651933420524</v>
+        <v>65.14664516168608</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>22.31814463233992</v>
+        <v>77.03795132532964</v>
       </c>
       <c r="C21" t="n">
-        <v>-18.52635249143777</v>
+        <v>40.71192456561957</v>
       </c>
       <c r="D21" t="n">
-        <v>63.22688518953398</v>
+        <v>120.6212741639284</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B22" t="n">
-        <v>26.69132809774166</v>
+        <v>52.57634939994134</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.75292956231781</v>
+        <v>11.85296930430168</v>
       </c>
       <c r="D22" t="n">
-        <v>66.36650779704405</v>
+        <v>96.22849901513513</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78.81150032655822</v>
+      </c>
+      <c r="C23" t="n">
+        <v>38.2439986123847</v>
+      </c>
+      <c r="D23" t="n">
+        <v>120.1206816458803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B23" t="n">
-        <v>77.48251170747785</v>
-      </c>
-      <c r="C23" t="n">
-        <v>36.68489453804513</v>
-      </c>
-      <c r="D23" t="n">
-        <v>118.0723489109541</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B24" t="n">
-        <v>55.58801786758934</v>
+        <v>56.43536736314331</v>
       </c>
       <c r="C24" t="n">
-        <v>14.94634648117427</v>
+        <v>18.13412645519715</v>
       </c>
       <c r="D24" t="n">
-        <v>99.35176808372124</v>
+        <v>99.22483175646799</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B25" t="n">
-        <v>81.36187242026571</v>
+        <v>23.22417631119115</v>
       </c>
       <c r="C25" t="n">
-        <v>38.20337542075695</v>
+        <v>-13.3997146447066</v>
       </c>
       <c r="D25" t="n">
-        <v>123.1460424430527</v>
+        <v>61.55662641446811</v>
       </c>
       <c r="E25" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B26" t="n">
-        <v>58.26668652270259</v>
+        <v>10.87150110404095</v>
       </c>
       <c r="C26" t="n">
-        <v>19.00309063529548</v>
+        <v>-30.36646780187903</v>
       </c>
       <c r="D26" t="n">
-        <v>99.57178561352184</v>
+        <v>50.22960389452332</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B27" t="n">
-        <v>24.65426000540851</v>
+        <v>20.94890466270287</v>
       </c>
       <c r="C27" t="n">
-        <v>-15.32665131270898</v>
+        <v>-16.86950489795051</v>
       </c>
       <c r="D27" t="n">
-        <v>61.76197458322652</v>
+        <v>61.18929476777939</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B28" t="n">
-        <v>11.30353300298092</v>
+        <v>40.45225937209817</v>
       </c>
       <c r="C28" t="n">
-        <v>-28.20081736354086</v>
+        <v>-0.3544157341280464</v>
       </c>
       <c r="D28" t="n">
-        <v>52.3658793409756</v>
+        <v>79.27267961476913</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B29" t="n">
-        <v>21.03141250804838</v>
+        <v>42.95260908629353</v>
       </c>
       <c r="C29" t="n">
-        <v>-18.04445415554532</v>
+        <v>3.460300913020404</v>
       </c>
       <c r="D29" t="n">
-        <v>60.64132300757246</v>
+        <v>84.53290599340028</v>
       </c>
       <c r="E29" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>42.2789092806586</v>
+        <v>14.36004981978289</v>
       </c>
       <c r="C30" t="n">
-        <v>1.215189357374567</v>
+        <v>-25.33768840301243</v>
       </c>
       <c r="D30" t="n">
-        <v>82.73386731285768</v>
+        <v>55.35769520778206</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>44.62995656023021</v>
+        <v>29.45639040372139</v>
       </c>
       <c r="C31" t="n">
-        <v>7.581667568371347</v>
+        <v>-8.494015518084426</v>
       </c>
       <c r="D31" t="n">
-        <v>85.3765106455553</v>
+        <v>70.58984058464689</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45040</v>
+        <v>45057</v>
       </c>
       <c r="B32" t="n">
-        <v>14.05670798937556</v>
+        <v>15.97604561324267</v>
       </c>
       <c r="C32" t="n">
-        <v>-24.76328048406203</v>
+        <v>-23.54037680396595</v>
       </c>
       <c r="D32" t="n">
-        <v>52.07437595870265</v>
+        <v>57.86549007784598</v>
       </c>
       <c r="E32" t="n">
         <v>112</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45034</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B33" t="n">
-        <v>27.75569771530294</v>
+        <v>14.15156328842579</v>
       </c>
       <c r="C33" t="n">
-        <v>-10.87160301617229</v>
+        <v>-29.35898419124198</v>
       </c>
       <c r="D33" t="n">
-        <v>71.30579153423274</v>
+        <v>55.02752579885529</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45057</v>
-      </c>
-      <c r="B34" t="n">
-        <v>16.77186694476651</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-25.11268925758551</v>
-      </c>
-      <c r="D34" t="n">
-        <v>57.04319068797758</v>
-      </c>
-      <c r="E34" t="n">
-        <v>112</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B35" t="n">
-        <v>17.29676726223581</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-24.30546958996709</v>
-      </c>
-      <c r="D35" t="n">
-        <v>59.40108045686764</v>
-      </c>
-      <c r="E35" t="n">
-        <v>40</v>
-      </c>
-      <c r="F35" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1217,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>733.9611193666046</v>
+        <v>693.3032539139317</v>
       </c>
       <c r="C2" t="n">
-        <v>27.09171680360262</v>
+        <v>26.33065236400214</v>
       </c>
       <c r="D2" t="n">
-        <v>19.87040452985588</v>
+        <v>20.66602799895775</v>
       </c>
       <c r="E2" t="n">
-        <v>2.483800566231986</v>
+        <v>2.583253499869719</v>
       </c>
       <c r="F2" t="n">
-        <v>1.976831696786159</v>
+        <v>2.177736945332972</v>
       </c>
       <c r="G2" t="n">
-        <v>1.230892246098994</v>
+        <v>1.495089702819628</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1243,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4244.912616643892</v>
+        <v>4321.730602369259</v>
       </c>
       <c r="C3" t="n">
-        <v>65.15299391926584</v>
+        <v>65.73987072066129</v>
       </c>
       <c r="D3" t="n">
-        <v>55.62797825933226</v>
+        <v>56.87834020419795</v>
       </c>
       <c r="E3" t="n">
-        <v>3.164024674862611</v>
+        <v>3.332056357837773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8744936786662897</v>
+        <v>3.325403902602722</v>
       </c>
       <c r="G3" t="n">
-        <v>1.594949432027909</v>
+        <v>1.680171357539347</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
@@ -1269,25 +1229,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>613.9993132345608</v>
+        <v>480.0486222744203</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7790095289251</v>
+        <v>21.91001191862798</v>
       </c>
       <c r="D4" t="n">
-        <v>19.92144521668795</v>
+        <v>17.80144845902062</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9851852629753388</v>
+        <v>0.8940893956118892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6232055450736822</v>
+        <v>0.6321081155986459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6460658419104218</v>
+        <v>0.6293960310422259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9230769230769234</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451054/OBAPPA4451054_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451054/OBAPPA4451054_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,641 +473,681 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
       <c r="B2" t="n">
-        <v>9.851602208951302</v>
+        <v>86.35104351865144</v>
       </c>
       <c r="C2" t="n">
-        <v>-30.56132651644539</v>
+        <v>44.7085835861094</v>
       </c>
       <c r="D2" t="n">
-        <v>50.86401937633993</v>
+        <v>128.0941789969523</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44865</v>
+        <v>44852</v>
       </c>
       <c r="B3" t="n">
-        <v>-44.32904243341898</v>
+        <v>48.97365393492939</v>
       </c>
       <c r="C3" t="n">
-        <v>-87.24517743913766</v>
+        <v>7.499746223557342</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.70332994838231</v>
+        <v>89.74167852675438</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44869</v>
+        <v>44859</v>
       </c>
       <c r="B4" t="n">
-        <v>-18.60323122082178</v>
+        <v>10.07370924069204</v>
       </c>
       <c r="C4" t="n">
-        <v>-60.64077054143041</v>
+        <v>-33.86713479694477</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86866360918486</v>
+        <v>51.50797528190395</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44866</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44873</v>
+        <v>44865</v>
       </c>
       <c r="B5" t="n">
-        <v>14.71183428451205</v>
+        <v>-42.69728522690519</v>
       </c>
       <c r="C5" t="n">
-        <v>-26.50787734595281</v>
+        <v>-81.25729747918557</v>
       </c>
       <c r="D5" t="n">
-        <v>57.84485171503798</v>
+        <v>1.440090152237886</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44880</v>
+        <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>27.00164243012569</v>
+        <v>-21.63421385848588</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.77685171410254</v>
+        <v>-61.88240144363052</v>
       </c>
       <c r="D6" t="n">
-        <v>70.13597523907201</v>
+        <v>20.98881842459852</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
       <c r="B7" t="n">
-        <v>26.82842254612105</v>
+        <v>12.29943658817607</v>
       </c>
       <c r="C7" t="n">
-        <v>-15.60527988279266</v>
+        <v>-32.2384301045935</v>
       </c>
       <c r="D7" t="n">
-        <v>69.73746279623099</v>
+        <v>55.83048301491031</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44880</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="B8" t="n">
-        <v>22.96430175914033</v>
+        <v>26.62097745868018</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.68111309762941</v>
+        <v>-16.86873970791364</v>
       </c>
       <c r="D8" t="n">
-        <v>63.22577934556475</v>
+        <v>66.85861871280969</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>20.15599002672607</v>
+        <v>25.998662132968</v>
       </c>
       <c r="C9" t="n">
-        <v>-20.24655133084188</v>
+        <v>-15.37466420279875</v>
       </c>
       <c r="D9" t="n">
-        <v>56.27302006759999</v>
+        <v>65.59482308539077</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
       <c r="B10" t="n">
-        <v>29.26712907505482</v>
+        <v>22.6406856117168</v>
       </c>
       <c r="C10" t="n">
-        <v>-15.87617972264429</v>
+        <v>-20.34494759802856</v>
       </c>
       <c r="D10" t="n">
-        <v>69.77920191635546</v>
+        <v>61.80546719904945</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B11" t="n">
-        <v>40.23694347852569</v>
+        <v>20.14442682113863</v>
       </c>
       <c r="C11" t="n">
-        <v>1.453028807242948</v>
+        <v>-22.56090549014094</v>
       </c>
       <c r="D11" t="n">
-        <v>83.47690197237735</v>
+        <v>59.9024338680842</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44925</v>
+        <v>44908</v>
       </c>
       <c r="B12" t="n">
-        <v>4.75602852943789</v>
+        <v>29.30070625519905</v>
       </c>
       <c r="C12" t="n">
-        <v>-34.05637635849571</v>
+        <v>-12.43239801862888</v>
       </c>
       <c r="D12" t="n">
-        <v>45.6408993574212</v>
+        <v>72.04450478712599</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44922</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B13" t="n">
-        <v>25.86288347946589</v>
+        <v>39.57813533635402</v>
       </c>
       <c r="C13" t="n">
-        <v>-16.89948277127286</v>
+        <v>-2.184285519379598</v>
       </c>
       <c r="D13" t="n">
-        <v>68.50920324448794</v>
+        <v>81.21249182264039</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44936</v>
+        <v>44925</v>
       </c>
       <c r="B14" t="n">
-        <v>27.6085430411528</v>
+        <v>3.872066516270433</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.5311701938074</v>
+        <v>-38.11899157431837</v>
       </c>
       <c r="D14" t="n">
-        <v>67.85924767892428</v>
+        <v>46.02935979953874</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B15" t="n">
-        <v>36.46648285893093</v>
+        <v>25.00635349976501</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.239901703015104</v>
+        <v>-15.16603481159845</v>
       </c>
       <c r="D15" t="n">
-        <v>77.51617331901326</v>
+        <v>70.70590749963034</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
       <c r="B16" t="n">
-        <v>39.51606945878495</v>
+        <v>27.06766842975638</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.788135304061352</v>
+        <v>-12.43109384302062</v>
       </c>
       <c r="D16" t="n">
-        <v>80.60286690504155</v>
+        <v>69.39750726071645</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44960</v>
+        <v>44943</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2405599045057691</v>
+        <v>36.86863890548612</v>
       </c>
       <c r="C17" t="n">
-        <v>-41.88423936979088</v>
+        <v>-1.622632895892342</v>
       </c>
       <c r="D17" t="n">
-        <v>38.80146068166281</v>
+        <v>76.90376899736799</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44957</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44964</v>
+        <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>17.36141690592753</v>
+        <v>39.40604044079762</v>
       </c>
       <c r="C18" t="n">
-        <v>-22.93039441791984</v>
+        <v>-0.8981976405563603</v>
       </c>
       <c r="D18" t="n">
-        <v>59.4622388097519</v>
+        <v>79.86072631509646</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44971</v>
+        <v>44960</v>
       </c>
       <c r="B19" t="n">
-        <v>21.95629761679113</v>
+        <v>-2.003023747901254</v>
       </c>
       <c r="C19" t="n">
-        <v>-20.18018310799156</v>
+        <v>-43.24206660160529</v>
       </c>
       <c r="D19" t="n">
-        <v>65.82004571012108</v>
+        <v>39.68235241681633</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44980</v>
+        <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>25.58948100187175</v>
+        <v>15.90974167436476</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.31240469963015</v>
+        <v>-25.30754340310789</v>
       </c>
       <c r="D20" t="n">
-        <v>65.14664516168608</v>
+        <v>57.56631182043488</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="B21" t="n">
-        <v>77.03795132532964</v>
+        <v>20.9955720420814</v>
       </c>
       <c r="C21" t="n">
-        <v>40.71192456561957</v>
+        <v>-18.74500808953105</v>
       </c>
       <c r="D21" t="n">
-        <v>120.6212741639284</v>
+        <v>65.00737282267087</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44988</v>
+        <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>52.57634939994134</v>
+        <v>25.14839517750608</v>
       </c>
       <c r="C22" t="n">
-        <v>11.85296930430168</v>
+        <v>-13.23885590150785</v>
       </c>
       <c r="D22" t="n">
-        <v>96.22849901513513</v>
+        <v>69.4935608592579</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>78.81150032655822</v>
+        <v>76.98877649835406</v>
       </c>
       <c r="C23" t="n">
-        <v>38.2439986123847</v>
+        <v>36.20597701768388</v>
       </c>
       <c r="D23" t="n">
-        <v>120.1206816458803</v>
+        <v>116.783259393103</v>
       </c>
       <c r="E23" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="B24" t="n">
-        <v>56.43536736314331</v>
+        <v>52.27208029621649</v>
       </c>
       <c r="C24" t="n">
-        <v>18.13412645519715</v>
+        <v>11.65676815182083</v>
       </c>
       <c r="D24" t="n">
-        <v>99.22483175646799</v>
+        <v>91.4484703709298</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>23.22417631119115</v>
+        <v>78.99670629572334</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.3997146447066</v>
+        <v>38.93424229309927</v>
       </c>
       <c r="D25" t="n">
-        <v>61.55662641446811</v>
+        <v>122.39558727902</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B26" t="n">
-        <v>10.87150110404095</v>
+        <v>56.04512700652383</v>
       </c>
       <c r="C26" t="n">
-        <v>-30.36646780187903</v>
+        <v>15.24528685047648</v>
       </c>
       <c r="D26" t="n">
-        <v>50.22960389452332</v>
+        <v>97.89768530739113</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B27" t="n">
-        <v>20.94890466270287</v>
+        <v>23.2225583222983</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.86950489795051</v>
+        <v>-17.3534699875356</v>
       </c>
       <c r="D27" t="n">
-        <v>61.18929476777939</v>
+        <v>65.22923941301958</v>
       </c>
       <c r="E27" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B28" t="n">
-        <v>40.45225937209817</v>
+        <v>10.11152764093669</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3544157341280464</v>
+        <v>-33.73761653663616</v>
       </c>
       <c r="D28" t="n">
-        <v>79.27267961476913</v>
+        <v>49.95659007135065</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="B29" t="n">
-        <v>42.95260908629353</v>
+        <v>19.53128943910812</v>
       </c>
       <c r="C29" t="n">
-        <v>3.460300913020404</v>
+        <v>-23.19553440126934</v>
       </c>
       <c r="D29" t="n">
-        <v>84.53290599340028</v>
+        <v>62.86124301734632</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B30" t="n">
-        <v>14.36004981978289</v>
+        <v>40.49307929956713</v>
       </c>
       <c r="C30" t="n">
-        <v>-25.33768840301243</v>
+        <v>-2.014911896602535</v>
       </c>
       <c r="D30" t="n">
-        <v>55.35769520778206</v>
+        <v>81.02644885213502</v>
       </c>
       <c r="E30" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B31" t="n">
-        <v>29.45639040372139</v>
+        <v>42.54573115479549</v>
       </c>
       <c r="C31" t="n">
-        <v>-8.494015518084426</v>
+        <v>1.503930373953242</v>
       </c>
       <c r="D31" t="n">
-        <v>70.58984058464689</v>
+        <v>83.6586542985319</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45057</v>
+        <v>45040</v>
       </c>
       <c r="B32" t="n">
-        <v>15.97604561324267</v>
+        <v>14.651358800268</v>
       </c>
       <c r="C32" t="n">
-        <v>-23.54037680396595</v>
+        <v>-28.50352571468276</v>
       </c>
       <c r="D32" t="n">
-        <v>57.86549007784598</v>
+        <v>56.06412703192249</v>
       </c>
       <c r="E32" t="n">
         <v>112</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45055</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B33" t="n">
+        <v>28.44395644490885</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-15.7752349889926</v>
+      </c>
+      <c r="D33" t="n">
+        <v>68.44160831033201</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19.75110769903113</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-19.16912467075283</v>
+      </c>
+      <c r="D34" t="n">
+        <v>61.05111245495616</v>
+      </c>
+      <c r="E34" t="n">
+        <v>112</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B33" t="n">
-        <v>14.15156328842579</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-29.35898419124198</v>
-      </c>
-      <c r="D33" t="n">
-        <v>55.02752579885529</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="B35" t="n">
+        <v>16.18037241922605</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-24.70093971030304</v>
+      </c>
+      <c r="D35" t="n">
+        <v>56.32389476077808</v>
+      </c>
+      <c r="E35" t="n">
         <v>40</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F35" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1177,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>693.3032539139317</v>
+        <v>738.8260109280723</v>
       </c>
       <c r="C2" t="n">
-        <v>26.33065236400214</v>
+        <v>27.18135410401903</v>
       </c>
       <c r="D2" t="n">
-        <v>20.66602799895775</v>
+        <v>22.0093128465833</v>
       </c>
       <c r="E2" t="n">
-        <v>2.583253499869719</v>
+        <v>2.751164105822912</v>
       </c>
       <c r="F2" t="n">
-        <v>2.177736945332972</v>
+        <v>2.477327350399196</v>
       </c>
       <c r="G2" t="n">
-        <v>1.495089702819628</v>
+        <v>1.541119232156348</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1203,22 +1243,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4321.730602369259</v>
+        <v>4261.932894580136</v>
       </c>
       <c r="C3" t="n">
-        <v>65.73987072066129</v>
+        <v>65.28348102376385</v>
       </c>
       <c r="D3" t="n">
-        <v>56.87834020419795</v>
+        <v>56.68507975774016</v>
       </c>
       <c r="E3" t="n">
-        <v>3.332056357837773</v>
+        <v>3.319169685204079</v>
       </c>
       <c r="F3" t="n">
-        <v>3.325403902602722</v>
+        <v>1.250377968487657</v>
       </c>
       <c r="G3" t="n">
-        <v>1.680171357539347</v>
+        <v>1.69279627400904</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
@@ -1229,25 +1269,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>480.0486222744203</v>
+        <v>599.6902974498207</v>
       </c>
       <c r="C4" t="n">
-        <v>21.91001191862798</v>
+        <v>24.48857483500869</v>
       </c>
       <c r="D4" t="n">
-        <v>17.80144845902062</v>
+        <v>19.77639128222353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8940893956118892</v>
+        <v>0.9537484799806677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6321081155986459</v>
+        <v>0.6233588319104947</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6293960310422259</v>
+        <v>0.6535264466157731</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769234</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451054/OBAPPA4451054_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451054/OBAPPA4451054_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,681 +473,641 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>86.35104351865144</v>
+        <v>9.97452317528969</v>
       </c>
       <c r="C2" t="n">
-        <v>44.7085835861094</v>
+        <v>-33.7357173831547</v>
       </c>
       <c r="D2" t="n">
-        <v>128.0941789969523</v>
+        <v>53.06919059213345</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>48.97365393492939</v>
+        <v>-44.80022556633491</v>
       </c>
       <c r="C3" t="n">
-        <v>7.499746223557342</v>
+        <v>-89.27941282892345</v>
       </c>
       <c r="D3" t="n">
-        <v>89.74167852675438</v>
+        <v>1.326568580594704</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>10.07370924069204</v>
+        <v>-22.03888028394127</v>
       </c>
       <c r="C4" t="n">
-        <v>-33.86713479694477</v>
+        <v>-63.49264526592588</v>
       </c>
       <c r="D4" t="n">
-        <v>51.50797528190395</v>
+        <v>25.71051904107584</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="B5" t="n">
-        <v>-42.69728522690519</v>
+        <v>11.8372189646082</v>
       </c>
       <c r="C5" t="n">
-        <v>-81.25729747918557</v>
+        <v>-34.73372941209104</v>
       </c>
       <c r="D5" t="n">
-        <v>1.440090152237886</v>
+        <v>54.99460401156863</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B6" t="n">
-        <v>-21.63421385848588</v>
+        <v>26.60144458196633</v>
       </c>
       <c r="C6" t="n">
-        <v>-61.88240144363052</v>
+        <v>-16.36679185095855</v>
       </c>
       <c r="D6" t="n">
-        <v>20.98881842459852</v>
+        <v>71.26031691428244</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
       <c r="B7" t="n">
-        <v>12.29943658817607</v>
+        <v>26.68911293093007</v>
       </c>
       <c r="C7" t="n">
-        <v>-32.2384301045935</v>
+        <v>-18.36896905452477</v>
       </c>
       <c r="D7" t="n">
-        <v>55.83048301491031</v>
+        <v>71.75459093078356</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44866</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B8" t="n">
-        <v>26.62097745868018</v>
+        <v>23.64359194036876</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.86873970791364</v>
+        <v>-19.43462936564041</v>
       </c>
       <c r="D8" t="n">
-        <v>66.85861871280969</v>
+        <v>64.28252904125057</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44887</v>
+        <v>44901</v>
       </c>
       <c r="B9" t="n">
-        <v>25.998662132968</v>
+        <v>18.62974196006211</v>
       </c>
       <c r="C9" t="n">
-        <v>-15.37466420279875</v>
+        <v>-22.7724883759134</v>
       </c>
       <c r="D9" t="n">
-        <v>65.59482308539077</v>
+        <v>62.5052652044409</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="B10" t="n">
-        <v>22.6406856117168</v>
+        <v>27.92084752418519</v>
       </c>
       <c r="C10" t="n">
-        <v>-20.34494759802856</v>
+        <v>-16.12013138468998</v>
       </c>
       <c r="D10" t="n">
-        <v>61.80546719904945</v>
+        <v>71.38653197097764</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44887</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="B11" t="n">
-        <v>20.14442682113863</v>
+        <v>39.99688040979395</v>
       </c>
       <c r="C11" t="n">
-        <v>-22.56090549014094</v>
+        <v>-4.628052576130503</v>
       </c>
       <c r="D11" t="n">
-        <v>59.9024338680842</v>
+        <v>87.15080091527746</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44908</v>
+        <v>44925</v>
       </c>
       <c r="B12" t="n">
-        <v>29.30070625519905</v>
+        <v>3.949101885893581</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.43239801862888</v>
+        <v>-40.95865868000722</v>
       </c>
       <c r="D12" t="n">
-        <v>72.04450478712599</v>
+        <v>47.81094509228469</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44901</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B13" t="n">
-        <v>39.57813533635402</v>
+        <v>24.49895472910609</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.184285519379598</v>
+        <v>-18.31859968823717</v>
       </c>
       <c r="D13" t="n">
-        <v>81.21249182264039</v>
+        <v>67.39030391312825</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="B14" t="n">
-        <v>3.872066516270433</v>
+        <v>26.58039548086412</v>
       </c>
       <c r="C14" t="n">
-        <v>-38.11899157431837</v>
+        <v>-17.70544883090094</v>
       </c>
       <c r="D14" t="n">
-        <v>46.02935979953874</v>
+        <v>71.56760693656376</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44922</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B15" t="n">
-        <v>25.00635349976501</v>
+        <v>35.2510780745278</v>
       </c>
       <c r="C15" t="n">
-        <v>-15.16603481159845</v>
+        <v>-7.042733901957855</v>
       </c>
       <c r="D15" t="n">
-        <v>70.70590749963034</v>
+        <v>79.44540233031171</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>27.06766842975638</v>
+        <v>38.47608694757368</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.43109384302062</v>
+        <v>-6.230596054541311</v>
       </c>
       <c r="D16" t="n">
-        <v>69.39750726071645</v>
+        <v>80.53568503589467</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44943</v>
+        <v>44960</v>
       </c>
       <c r="B17" t="n">
-        <v>36.86863890548612</v>
+        <v>0.1119001342430916</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.622632895892342</v>
+        <v>-36.95281843371671</v>
       </c>
       <c r="D17" t="n">
-        <v>76.90376899736799</v>
+        <v>43.18761318872633</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44936</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="B18" t="n">
-        <v>39.40604044079762</v>
+        <v>17.19155768721816</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8981976405563603</v>
+        <v>-25.89232333973011</v>
       </c>
       <c r="D18" t="n">
-        <v>79.86072631509646</v>
+        <v>57.14401505440394</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.003023747901254</v>
+        <v>19.3663343046765</v>
       </c>
       <c r="C19" t="n">
-        <v>-43.24206660160529</v>
+        <v>-25.04828883074938</v>
       </c>
       <c r="D19" t="n">
-        <v>39.68235241681633</v>
+        <v>60.3388299089488</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>15.90974167436476</v>
+        <v>20.52850661676856</v>
       </c>
       <c r="C20" t="n">
-        <v>-25.30754340310789</v>
+        <v>-20.61490793801942</v>
       </c>
       <c r="D20" t="n">
-        <v>57.56631182043488</v>
+        <v>66.6422933378265</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>20.9955720420814</v>
+        <v>76.59963207763708</v>
       </c>
       <c r="C21" t="n">
-        <v>-18.74500808953105</v>
+        <v>34.18928858552575</v>
       </c>
       <c r="D21" t="n">
-        <v>65.00737282267087</v>
+        <v>117.0022470264926</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B22" t="n">
-        <v>25.14839517750608</v>
+        <v>57.11274813442066</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.23885590150785</v>
+        <v>16.38389586051284</v>
       </c>
       <c r="D22" t="n">
-        <v>69.4935608592579</v>
+        <v>99.97339633737495</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B23" t="n">
+        <v>88.40335006643319</v>
+      </c>
+      <c r="C23" t="n">
+        <v>45.48189015162159</v>
+      </c>
+      <c r="D23" t="n">
+        <v>130.5968325264647</v>
+      </c>
+      <c r="E23" t="n">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B23" t="n">
-        <v>76.98877649835406</v>
-      </c>
-      <c r="C23" t="n">
-        <v>36.20597701768388</v>
-      </c>
-      <c r="D23" t="n">
-        <v>116.783259393103</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B24" t="n">
-        <v>52.27208029621649</v>
+        <v>68.96611185620438</v>
       </c>
       <c r="C24" t="n">
-        <v>11.65676815182083</v>
+        <v>27.28500399163431</v>
       </c>
       <c r="D24" t="n">
-        <v>91.4484703709298</v>
+        <v>111.4074062429138</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B25" t="n">
-        <v>78.99670629572334</v>
+        <v>35.11474949556971</v>
       </c>
       <c r="C25" t="n">
-        <v>38.93424229309927</v>
+        <v>-5.287211526944551</v>
       </c>
       <c r="D25" t="n">
-        <v>122.39558727902</v>
+        <v>79.47813602872957</v>
       </c>
       <c r="E25" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B26" t="n">
-        <v>56.04512700652383</v>
+        <v>16.20776205452637</v>
       </c>
       <c r="C26" t="n">
-        <v>15.24528685047648</v>
+        <v>-26.51724380522847</v>
       </c>
       <c r="D26" t="n">
-        <v>97.89768530739113</v>
+        <v>57.72631152459778</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B27" t="n">
-        <v>23.2225583222983</v>
+        <v>18.47079195998533</v>
       </c>
       <c r="C27" t="n">
-        <v>-17.3534699875356</v>
+        <v>-24.81103872762745</v>
       </c>
       <c r="D27" t="n">
-        <v>65.22923941301958</v>
+        <v>59.01185145558131</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B28" t="n">
-        <v>10.11152764093669</v>
+        <v>37.19847651883293</v>
       </c>
       <c r="C28" t="n">
-        <v>-33.73761653663616</v>
+        <v>-5.620125478002572</v>
       </c>
       <c r="D28" t="n">
-        <v>49.95659007135065</v>
+        <v>79.53686832070498</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B29" t="n">
-        <v>19.53128943910812</v>
+        <v>40.54493252931174</v>
       </c>
       <c r="C29" t="n">
-        <v>-23.19553440126934</v>
+        <v>-1.802374876095464</v>
       </c>
       <c r="D29" t="n">
-        <v>62.86124301734632</v>
+        <v>82.46800590809586</v>
       </c>
       <c r="E29" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>40.49307929956713</v>
+        <v>13.12342212962827</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.014911896602535</v>
+        <v>-26.33802150845901</v>
       </c>
       <c r="D30" t="n">
-        <v>81.02644885213502</v>
+        <v>55.22184798003821</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>42.54573115479549</v>
+        <v>28.73770726260264</v>
       </c>
       <c r="C31" t="n">
-        <v>1.503930373953242</v>
+        <v>-13.4789414876528</v>
       </c>
       <c r="D31" t="n">
-        <v>83.6586542985319</v>
+        <v>71.61620405645475</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45040</v>
+        <v>45057</v>
       </c>
       <c r="B32" t="n">
-        <v>14.651358800268</v>
+        <v>29.28150409140749</v>
       </c>
       <c r="C32" t="n">
-        <v>-28.50352571468276</v>
+        <v>-11.40551373032011</v>
       </c>
       <c r="D32" t="n">
-        <v>56.06412703192249</v>
+        <v>73.00371533376881</v>
       </c>
       <c r="E32" t="n">
         <v>112</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45034</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B33" t="n">
-        <v>28.44395644490885</v>
+        <v>10.98476286223932</v>
       </c>
       <c r="C33" t="n">
-        <v>-15.7752349889926</v>
+        <v>-30.92309543795183</v>
       </c>
       <c r="D33" t="n">
-        <v>68.44160831033201</v>
+        <v>53.83607656167643</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45057</v>
-      </c>
-      <c r="B34" t="n">
-        <v>19.75110769903113</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-19.16912467075283</v>
-      </c>
-      <c r="D34" t="n">
-        <v>61.05111245495616</v>
-      </c>
-      <c r="E34" t="n">
-        <v>112</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B35" t="n">
-        <v>16.18037241922605</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-24.70093971030304</v>
-      </c>
-      <c r="D35" t="n">
-        <v>56.32389476077808</v>
-      </c>
-      <c r="E35" t="n">
-        <v>40</v>
-      </c>
-      <c r="F35" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1217,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>738.8260109280723</v>
+        <v>848.2570632627553</v>
       </c>
       <c r="C2" t="n">
-        <v>27.18135410401903</v>
+        <v>29.12485301701547</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0093128465833</v>
+        <v>22.77265659955631</v>
       </c>
       <c r="E2" t="n">
-        <v>2.751164105822912</v>
+        <v>2.846582074944539</v>
       </c>
       <c r="F2" t="n">
-        <v>2.477327350399196</v>
+        <v>2.370436259356136</v>
       </c>
       <c r="G2" t="n">
-        <v>1.541119232156348</v>
+        <v>1.532848014135568</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1243,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4261.932894580136</v>
+        <v>4470.89951149143</v>
       </c>
       <c r="C3" t="n">
-        <v>65.28348102376385</v>
+        <v>66.86478528711081</v>
       </c>
       <c r="D3" t="n">
-        <v>56.68507975774016</v>
+        <v>58.14982001208765</v>
       </c>
       <c r="E3" t="n">
-        <v>3.319169685204079</v>
+        <v>3.443145619621574</v>
       </c>
       <c r="F3" t="n">
-        <v>1.250377968487657</v>
+        <v>3.754860035492658</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69279627400904</v>
+        <v>1.704437581825986</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
@@ -1269,25 +1229,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>599.6902974498207</v>
+        <v>526.2372918517691</v>
       </c>
       <c r="C4" t="n">
-        <v>24.48857483500869</v>
+        <v>22.93986250725512</v>
       </c>
       <c r="D4" t="n">
-        <v>19.77639128222353</v>
+        <v>18.29849108672185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9537484799806677</v>
+        <v>0.8809071472331015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6233588319104947</v>
+        <v>0.613118707939609</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6535264466157731</v>
+        <v>0.6210170955774306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9230769230769234</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
   </sheetData>
